--- a/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bundesliga" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="La Liga" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ligue 1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Premier League" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Serie A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Bundesliga" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="La Liga" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Ligue 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Premier League" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Serie A" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1363,27 +1363,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -3079,17 +3079,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3099,12 +3099,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.38</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -3274,22 +3274,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -3598,22 +3598,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.13</t>
         </is>
       </c>
     </row>
@@ -3709,22 +3709,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -3788,17 +3788,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -4069,32 +4069,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -4106,32 +4106,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -4143,32 +4143,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.09</t>
         </is>
       </c>
     </row>
@@ -4180,32 +4180,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.21</t>
         </is>
       </c>
     </row>

--- a/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
@@ -494,12 +494,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.04</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.57</t>
         </is>
       </c>
     </row>
@@ -600,22 +600,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -642,17 +642,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.45</t>
         </is>
       </c>
     </row>
@@ -669,27 +669,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>
@@ -701,27 +701,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -738,32 +738,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -775,32 +775,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.48</t>
         </is>
       </c>
     </row>
@@ -812,32 +812,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.14</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -923,32 +923,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>M'Gladbach</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.30</t>
         </is>
       </c>
     </row>
@@ -997,32 +997,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>M'Gladbach</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>3.59</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.25</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -1220,22 +1220,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -1331,22 +1331,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -1395,32 +1395,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -1432,32 +1432,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.12</t>
         </is>
       </c>
     </row>
@@ -1469,17 +1469,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -1506,32 +1506,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1595,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -1627,22 +1627,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.20</t>
         </is>
       </c>
     </row>
@@ -1659,12 +1659,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1674,12 +1674,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -1706,17 +1706,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.20</t>
         </is>
       </c>
     </row>
@@ -1733,27 +1733,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -1770,27 +1770,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.20</t>
         </is>
       </c>
     </row>
@@ -1807,27 +1807,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1854,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -1923,22 +1923,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -2020,27 +2020,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.23</t>
         </is>
       </c>
     </row>
@@ -2052,32 +2052,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.23</t>
         </is>
       </c>
     </row>
@@ -2089,32 +2089,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.68</t>
         </is>
       </c>
     </row>
@@ -2126,32 +2126,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>LOSC Lille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.23</t>
         </is>
       </c>
     </row>
@@ -2163,32 +2163,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LOSC Lille</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3.32</t>
         </is>
       </c>
     </row>
@@ -2210,22 +2210,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.23</t>
         </is>
       </c>
     </row>
@@ -2252,17 +2252,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -2274,32 +2274,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -2311,32 +2311,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.41</t>
         </is>
       </c>
     </row>
@@ -2358,22 +2358,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -2385,32 +2385,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2432,22 +2432,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -2459,32 +2459,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -2496,12 +2496,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2543,22 +2543,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -2570,32 +2570,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>2.55</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2622,17 +2622,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.41</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -2766,12 +2766,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.32</t>
         </is>
       </c>
     </row>
@@ -2783,32 +2783,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -2820,12 +2820,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2835,17 +2835,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -2857,32 +2857,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.40</t>
         </is>
       </c>
     </row>
@@ -2894,32 +2894,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.60</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2946,17 +2946,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -2968,32 +2968,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.52</t>
         </is>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3015,22 +3015,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.76</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3062,12 +3062,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -3084,27 +3084,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.32</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3131,17 +3131,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -3163,17 +3163,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3195,12 +3195,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3210,12 +3210,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -3232,12 +3232,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3247,12 +3247,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -3264,32 +3264,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nottingham</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -3301,22 +3301,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nottingham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3358,12 +3358,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.38</t>
         </is>
       </c>
     </row>
@@ -3432,12 +3432,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.48</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3603,17 +3603,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.20</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3682,12 +3682,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -3714,17 +3714,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.40</t>
         </is>
       </c>
     </row>
@@ -3746,17 +3746,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3783,22 +3783,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -3820,22 +3820,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -3852,27 +3852,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -3899,17 +3899,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.79</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3936,17 +3936,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.20</t>
         </is>
       </c>
     </row>
@@ -3963,27 +3963,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -4010,17 +4010,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -4032,32 +4032,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -4069,32 +4069,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -4116,22 +4116,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -4143,32 +4143,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -4180,32 +4180,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -4232,17 +4232,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -4259,27 +4259,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>

--- a/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -1363,12 +1363,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.72</t>
         </is>
       </c>
     </row>
@@ -3264,22 +3264,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nottingham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -3301,32 +3301,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nottingham</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -3338,32 +3338,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.40</t>
         </is>
       </c>
     </row>
@@ -3375,32 +3375,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>71%</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.38</t>
         </is>
       </c>
     </row>

--- a/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.38</t>
         </is>
       </c>
     </row>
@@ -2783,32 +2783,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -2820,32 +2820,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -3237,22 +3237,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -3773,32 +3773,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.28</t>
         </is>
       </c>
     </row>
@@ -3810,32 +3810,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -3894,22 +3894,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.80</t>
         </is>
       </c>
     </row>

--- a/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,17 +531,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.00</t>
         </is>
       </c>
     </row>
@@ -558,27 +558,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -600,22 +600,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -632,27 +632,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.50</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -701,32 +701,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>96%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.52</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -775,32 +775,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.14</t>
         </is>
       </c>
     </row>
@@ -812,32 +812,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.40</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -886,32 +886,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>M'Gladbach</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>3.67</t>
         </is>
       </c>
     </row>
@@ -923,32 +923,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -997,32 +997,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M'Gladbach</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -1039,27 +1039,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -1118,22 +1118,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.74</t>
         </is>
       </c>
     </row>
@@ -1252,27 +1252,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -1294,22 +1294,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -1326,27 +1326,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -1363,17 +1363,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -1395,32 +1395,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.22</t>
         </is>
       </c>
     </row>
@@ -1432,32 +1432,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -1484,17 +1484,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -1516,22 +1516,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -1543,32 +1543,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -1580,32 +1580,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.85</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Alavés</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.41</t>
         </is>
       </c>
     </row>
@@ -1654,32 +1654,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Alavés</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -1691,32 +1691,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.70</t>
         </is>
       </c>
     </row>
@@ -1728,32 +1728,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1775,22 +1775,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.22</t>
         </is>
       </c>
     </row>
@@ -1812,12 +1812,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1844,27 +1844,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.07</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1891,17 +1891,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -1918,27 +1918,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -2057,27 +2057,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.21</t>
         </is>
       </c>
     </row>
@@ -2089,12 +2089,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2104,17 +2104,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.25</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2178,17 +2178,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -2205,27 +2205,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -2237,32 +2237,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -2274,32 +2274,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.71</t>
         </is>
       </c>
     </row>
@@ -2311,32 +2311,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -2348,32 +2348,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -2395,22 +2395,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2432,22 +2432,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -2459,32 +2459,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -2496,32 +2496,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -2533,32 +2533,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -2570,32 +2570,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -2622,17 +2622,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.42</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.42</t>
         </is>
       </c>
     </row>
@@ -2756,22 +2756,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>3.30</t>
         </is>
       </c>
     </row>
@@ -2788,27 +2788,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.30</t>
         </is>
       </c>
     </row>
@@ -2825,27 +2825,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.37</t>
         </is>
       </c>
     </row>
@@ -2872,17 +2872,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.62</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2946,17 +2946,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -2968,17 +2968,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2988,12 +2988,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.33</t>
         </is>
       </c>
     </row>
@@ -3010,27 +3010,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.78</t>
         </is>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3052,22 +3052,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -3079,32 +3079,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.35</t>
         </is>
       </c>
     </row>
@@ -3168,12 +3168,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3200,22 +3200,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>92%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -3227,32 +3227,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -3264,32 +3264,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.30</t>
         </is>
       </c>
     </row>
@@ -3301,32 +3301,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nottingham</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -3338,32 +3338,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Nottingham</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -3385,22 +3385,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.50</t>
         </is>
       </c>
     </row>
@@ -3427,17 +3427,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3566,17 +3566,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -3593,27 +3593,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3640,17 +3640,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -3662,32 +3662,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.41</t>
         </is>
       </c>
     </row>
@@ -3699,32 +3699,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -3736,32 +3736,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -3773,32 +3773,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.70</t>
         </is>
       </c>
     </row>
@@ -3820,12 +3820,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -3847,32 +3847,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.26</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3899,17 +3899,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -3926,27 +3926,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -3968,22 +3968,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -4000,27 +4000,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -4032,32 +4032,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -4069,32 +4069,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -4106,32 +4106,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.37</t>
         </is>
       </c>
     </row>
@@ -4148,27 +4148,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.22</t>
         </is>
       </c>
     </row>
@@ -4180,32 +4180,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -4217,32 +4217,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -4259,27 +4259,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>

--- a/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
@@ -484,12 +484,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.4</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -499,12 +499,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.08</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.52</t>
         </is>
       </c>
     </row>
@@ -595,27 +595,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -632,12 +632,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -669,27 +669,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.64</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -775,32 +775,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -812,32 +812,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -859,22 +859,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.76</t>
         </is>
       </c>
     </row>
@@ -928,27 +928,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -965,22 +965,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -1039,27 +1039,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -1081,22 +1081,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1123,17 +1123,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -1220,22 +1220,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -1294,22 +1294,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -1326,27 +1326,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.04</t>
         </is>
       </c>
     </row>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -1395,32 +1395,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Betis</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.54</t>
         </is>
       </c>
     </row>
@@ -1432,32 +1432,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Betis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -1484,17 +1484,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -1516,22 +1516,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.14</t>
         </is>
       </c>
     </row>
@@ -1553,22 +1553,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -1580,32 +1580,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.46</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -1664,12 +1664,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.11</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1701,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.75</t>
         </is>
       </c>
     </row>
@@ -1738,22 +1738,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.11</t>
         </is>
       </c>
     </row>
@@ -1780,17 +1780,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.18</t>
         </is>
       </c>
     </row>
@@ -1807,27 +1807,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.61</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1854,12 +1854,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.22</t>
         </is>
       </c>
     </row>
@@ -1923,22 +1923,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.08</t>
         </is>
       </c>
     </row>
@@ -2067,17 +2067,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -2094,27 +2094,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2146,12 +2146,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -2163,32 +2163,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.32</t>
         </is>
       </c>
     </row>
@@ -2200,32 +2200,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.72</t>
         </is>
       </c>
     </row>
@@ -2247,22 +2247,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -2284,22 +2284,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2331,12 +2331,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -2348,32 +2348,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -2385,32 +2385,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.40</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2432,22 +2432,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.24</t>
         </is>
       </c>
     </row>
@@ -2459,32 +2459,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2506,22 +2506,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.52</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2543,22 +2543,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -2570,32 +2570,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -2622,17 +2622,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -2649,27 +2649,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -2746,32 +2746,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -2783,32 +2783,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -2820,32 +2820,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2872,17 +2872,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.57</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2914,12 +2914,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.63</t>
         </is>
       </c>
     </row>
@@ -2946,17 +2946,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -2983,17 +2983,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -3005,32 +3005,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.36</t>
         </is>
       </c>
     </row>
@@ -3042,32 +3042,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -3079,17 +3079,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -3099,12 +3099,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.82</t>
         </is>
       </c>
     </row>
@@ -3121,27 +3121,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.41</t>
         </is>
       </c>
     </row>
@@ -3168,12 +3168,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3200,22 +3200,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.32</t>
         </is>
       </c>
     </row>
@@ -3237,22 +3237,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -3279,17 +3279,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -3311,22 +3311,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.43</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3353,17 +3353,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -3385,22 +3385,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.57</t>
         </is>
       </c>
     </row>
@@ -3417,12 +3417,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3432,12 +3432,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -3469,12 +3469,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.50</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3598,22 +3598,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -3625,32 +3625,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -3672,22 +3672,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -3704,27 +3704,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -3741,27 +3741,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.96</t>
         </is>
       </c>
     </row>
@@ -3783,22 +3783,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -3820,22 +3820,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.61</t>
         </is>
       </c>
     </row>
@@ -3857,22 +3857,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -3884,32 +3884,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -3921,32 +3921,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.86</t>
         </is>
       </c>
     </row>
@@ -3963,27 +3963,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -3995,32 +3995,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -4032,32 +4032,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.18</t>
         </is>
       </c>
     </row>
@@ -4069,32 +4069,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -4106,32 +4106,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -4143,32 +4143,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.29</t>
         </is>
       </c>
     </row>
@@ -4180,32 +4180,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -4222,27 +4222,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.14</t>
         </is>
       </c>
     </row>
@@ -4269,17 +4269,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>85%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>

--- a/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
+++ b/top_league_soccer/Excel/planilha_TOP5_ligas.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -521,27 +521,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.13</t>
         </is>
       </c>
     </row>
@@ -568,17 +568,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.47</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,22 +600,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.43</t>
         </is>
       </c>
     </row>
@@ -627,32 +627,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.10</t>
         </is>
       </c>
     </row>
@@ -669,27 +669,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.87</t>
         </is>
       </c>
     </row>
@@ -701,32 +701,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.23</t>
         </is>
       </c>
     </row>
@@ -775,32 +775,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>97%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.77</t>
         </is>
       </c>
     </row>
@@ -812,32 +812,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.17</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.77</t>
         </is>
       </c>
     </row>
@@ -933,22 +933,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.83</t>
         </is>
       </c>
     </row>
@@ -965,27 +965,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -997,32 +997,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Mainz</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -1034,32 +1034,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FC Köln</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>3.13</t>
         </is>
       </c>
     </row>
@@ -1071,32 +1071,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>FC Köln</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1113,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.40</t>
         </is>
       </c>
     </row>
@@ -1220,22 +1220,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -1247,32 +1247,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>6.1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -1284,32 +1284,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.34</t>
         </is>
       </c>
     </row>
@@ -1326,27 +1326,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.03</t>
         </is>
       </c>
     </row>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -1405,22 +1405,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1447,17 +1447,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -1474,27 +1474,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -1506,32 +1506,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>3.31</t>
         </is>
       </c>
     </row>
@@ -1543,32 +1543,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -1580,32 +1580,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>2.59</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -1654,32 +1654,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alavés</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -1691,32 +1691,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Alavés</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1738,22 +1738,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.63</t>
         </is>
       </c>
     </row>
@@ -1802,32 +1802,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.09</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.94</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>
@@ -2020,27 +2020,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2062,22 +2062,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.21</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2099,22 +2099,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>2.43</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2146,12 +2146,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.34</t>
         </is>
       </c>
     </row>
@@ -2163,32 +2163,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.83</t>
         </is>
       </c>
     </row>
@@ -2200,32 +2200,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.37</t>
         </is>
       </c>
     </row>
@@ -2237,32 +2237,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -2274,32 +2274,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.93</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2321,22 +2321,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -2348,27 +2348,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -2422,32 +2422,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -2459,32 +2459,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.47</t>
         </is>
       </c>
     </row>
@@ -2496,32 +2496,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -2533,32 +2533,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.67</t>
         </is>
       </c>
     </row>
@@ -2570,32 +2570,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.17</t>
         </is>
       </c>
     </row>
@@ -2607,32 +2607,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.10</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -2788,27 +2788,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.24</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2835,17 +2835,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.38</t>
         </is>
       </c>
     </row>
@@ -2862,27 +2862,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -2899,17 +2899,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96%</t>
+          <t>97%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.56</t>
         </is>
       </c>
     </row>
@@ -2931,32 +2931,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>3.78</t>
         </is>
       </c>
     </row>
@@ -2968,32 +2968,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>5.9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>
@@ -3005,32 +3005,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>94%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -3042,32 +3042,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
@@ -3079,32 +3079,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.19</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -3158,12 +3158,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.06</t>
         </is>
       </c>
     </row>
@@ -3195,27 +3195,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -3237,22 +3237,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>
@@ -3274,22 +3274,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -3306,27 +3306,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.48</t>
         </is>
       </c>
     </row>
@@ -3343,22 +3343,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3380,17 +3380,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.59</t>
         </is>
       </c>
     </row>
@@ -3417,27 +3417,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -3454,27 +3454,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>91%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.61</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.94</t>
         </is>
       </c>
     </row>
@@ -3593,27 +3593,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -3640,17 +3640,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.21</t>
         </is>
       </c>
     </row>
@@ -3667,27 +3667,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.24</t>
         </is>
       </c>
     </row>
@@ -3704,27 +3704,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3751,17 +3751,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -3773,32 +3773,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -3810,32 +3810,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>6.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.76</t>
         </is>
       </c>
     </row>
@@ -3847,32 +3847,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -3884,32 +3884,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.82</t>
         </is>
       </c>
     </row>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3941,12 +3941,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -3963,27 +3963,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.27</t>
         </is>
       </c>
     </row>
@@ -3995,32 +3995,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -4032,32 +4032,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.79</t>
         </is>
       </c>
     </row>
@@ -4069,32 +4069,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.27</t>
         </is>
       </c>
     </row>
@@ -4106,32 +4106,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.24</t>
         </is>
       </c>
     </row>
@@ -4143,32 +4143,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>78%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4195,17 +4195,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.12</t>
         </is>
       </c>
     </row>
@@ -4222,12 +4222,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4237,12 +4237,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -4259,17 +4259,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.91</t>
         </is>
       </c>
     </row>
